--- a/simulations/scene/inputs/Scenarios_25-06-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-06-05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp15564\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp00839\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC268A34-5E92-4E11-AD0F-87489A64DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55B8CA-F23A-4335-9763-706995C8E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_as_columns" sheetId="2" r:id="rId1"/>
@@ -2880,7 +2880,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="O192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T233" sqref="T233"/>
+      <selection pane="bottomRight" activeCell="S231" sqref="S231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33163,8 +33163,8 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="R205" s="44">
-        <f>0.00005 / 100</f>
-        <v>4.9999999999999998E-7</v>
+        <f>0.00005 / 100 *10</f>
+        <v>4.9999999999999996E-6</v>
       </c>
       <c r="S205" s="44">
         <f>0.00005 / 100</f>
@@ -37229,6 +37229,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R226:T226">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -37239,7 +37249,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R227:T227">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37317,17 +37339,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W209">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37383,6 +37405,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X208">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -37393,18 +37425,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X209">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -37415,29 +37447,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X210">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37537,17 +37559,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AD6 BC6 G6:P6 V6:X6 R6:T6">
+    <cfRule type="colorScale" priority="2875">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2874">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2875">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37669,17 +37691,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AD12 BC12 G12:P12 V12:X12 R12:T12">
+    <cfRule type="colorScale" priority="2887">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2886">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2887">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37889,17 +37911,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA24:AD24 BC24 G24:P24 V24:X24 R24:T24">
+    <cfRule type="colorScale" priority="2909">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2908">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2909">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37977,17 +37999,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AD28 BC28 G28:P28 V28:X28 R28:T28">
+    <cfRule type="colorScale" priority="2917">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2916">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2917">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38043,6 +38065,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AD31 BC31 G31:P31 V31:X31 R31:T31">
+    <cfRule type="colorScale" priority="2923">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2922">
       <colorScale>
         <cfvo type="min"/>
@@ -38053,29 +38085,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2923">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA32:AD32 BC32 G32:P32 V32:X32 R32:T32">
+    <cfRule type="colorScale" priority="2925">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2924">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2925">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38329,6 +38351,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AD44 BC44 G44:P44 V44:X44 R44:T44">
+    <cfRule type="colorScale" priority="2949">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2948">
       <colorScale>
         <cfvo type="min"/>
@@ -38339,18 +38371,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2949">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA45:AD45 BC45 G45:P45 V45:X45 R45:T45">
+    <cfRule type="colorScale" priority="2951">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2950">
       <colorScale>
         <cfvo type="min"/>
@@ -38361,29 +38393,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2951">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA46:AD46 BC46 G46:P46 V46:X46 R46:T46">
+    <cfRule type="colorScale" priority="2953">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2952">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2953">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38417,17 +38439,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AD48 BC48 G48:P48 V48:X48 R48:T48">
+    <cfRule type="colorScale" priority="2957">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2956">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2957">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38461,6 +38483,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AD50 BC50 G50:P50 V50:X50 R50:T50">
+    <cfRule type="colorScale" priority="2961">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2960">
       <colorScale>
         <cfvo type="min"/>
@@ -38471,18 +38503,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2961">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:AD51 BC51 G51:P51 V51:X51 R51:T51">
+    <cfRule type="colorScale" priority="2963">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2962">
       <colorScale>
         <cfvo type="min"/>
@@ -38493,18 +38525,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2963">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA52:AD52 BC52 G52:P52 V52:X52 R52:T52">
+    <cfRule type="colorScale" priority="2965">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2964">
       <colorScale>
         <cfvo type="min"/>
@@ -38515,18 +38547,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2965">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA53:AD53 BC53 G53:P53 V53:X53 R53:T53">
+    <cfRule type="colorScale" priority="2967">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2966">
       <colorScale>
         <cfvo type="min"/>
@@ -38537,18 +38569,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2967">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54:AD54 BC54 G54:P54 V54:X54 R54:T54">
+    <cfRule type="colorScale" priority="2969">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2968">
       <colorScale>
         <cfvo type="min"/>
@@ -38559,18 +38591,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2969">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55:AD55 BC55 G55:P55 V55:X55 R55:T55">
+    <cfRule type="colorScale" priority="2971">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2970">
       <colorScale>
         <cfvo type="min"/>
@@ -38581,18 +38613,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2971">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA56:AD56 BC56 G56:P56 V56:X56 R56:T56">
+    <cfRule type="colorScale" priority="2973">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2972">
       <colorScale>
         <cfvo type="min"/>
@@ -38603,29 +38635,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2973">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AD57 BC57 G57:P57 V57:X57 R57:T57">
+    <cfRule type="colorScale" priority="2975">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2974">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2975">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38659,6 +38681,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA59:AD59 BC59 G59:P59 V59:X59 R59:T59">
+    <cfRule type="colorScale" priority="2979">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2978">
       <colorScale>
         <cfvo type="min"/>
@@ -38669,18 +38701,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2979">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA60:AD60 BC60 G60:P60 V60:X60 R60:T60">
+    <cfRule type="colorScale" priority="2981">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2980">
       <colorScale>
         <cfvo type="min"/>
@@ -38691,18 +38723,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2981">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA61:AD61 BC61 G61:P61 V61:X61 R61:T61">
+    <cfRule type="colorScale" priority="2983">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2982">
       <colorScale>
         <cfvo type="min"/>
@@ -38713,18 +38745,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2983">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA62:AD62 BC62 G62:P62 V62:X62 R62:T62">
+    <cfRule type="colorScale" priority="2985">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2984">
       <colorScale>
         <cfvo type="min"/>
@@ -38735,18 +38767,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2985">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA63:AD63 BC63 G63:P63 V63:X63 R63:T63">
+    <cfRule type="colorScale" priority="2987">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2986">
       <colorScale>
         <cfvo type="min"/>
@@ -38757,18 +38789,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2987">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA64:AD64 BC64 G64:P64 V64:X64 R64:T64">
+    <cfRule type="colorScale" priority="2989">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2988">
       <colorScale>
         <cfvo type="min"/>
@@ -38779,29 +38811,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2989">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA65:AD65 BC65 G65:P65 V65:X65 R65:T65">
+    <cfRule type="colorScale" priority="2991">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2990">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2991">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38945,6 +38967,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AD72 BC72 G72:P72 V72:X72 R72:T72">
+    <cfRule type="colorScale" priority="3005">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3004">
       <colorScale>
         <cfvo type="min"/>
@@ -38955,29 +38987,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3005">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA73:AD73 BC73 G73:P73 V73:X73 R73:T73">
+    <cfRule type="colorScale" priority="3007">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3006">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3007">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39011,6 +39033,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA75:AD75 BC75 G75:P75 V75:X75 R75:T75">
+    <cfRule type="colorScale" priority="3011">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3010">
       <colorScale>
         <cfvo type="min"/>
@@ -39021,18 +39053,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3011">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA76:AD76 BC76 G76:P76 V76:X76 R76:T76">
+    <cfRule type="colorScale" priority="3013">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3012">
       <colorScale>
         <cfvo type="min"/>
@@ -39043,29 +39075,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3013">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA77:AD77 BC77 G77:P77 V77:X77 R77:T77">
+    <cfRule type="colorScale" priority="3015">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3014">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3015">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39209,6 +39231,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA84:AD84 BC84 G84:P84 V84:X84 R84:T84">
+    <cfRule type="colorScale" priority="3029">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3028">
       <colorScale>
         <cfvo type="min"/>
@@ -39219,29 +39251,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3029">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA85:AD85 BC85 G85:P85 V85:X85 R85:T85">
+    <cfRule type="colorScale" priority="3031">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3030">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3031">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39297,6 +39319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA88:AD88 BC88 G88:P88 V88:X88 R88:T88">
+    <cfRule type="colorScale" priority="3037">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3036">
       <colorScale>
         <cfvo type="min"/>
@@ -39307,29 +39339,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3037">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA89:AD89 BC89 G89:P89 V89:X89 R89:T89">
+    <cfRule type="colorScale" priority="3039">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3038">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3039">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39363,17 +39385,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AD91 BC91 G91:P91 V91:X91 R91:T91">
+    <cfRule type="colorScale" priority="3043">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3042">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3043">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39407,17 +39429,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA93:AD93 BC93 G93:P93 V93:X93 R93:T93">
+    <cfRule type="colorScale" priority="3047">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3046">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3047">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39473,6 +39495,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA96:AD96 BC96 G96:P96 V96:X96 R96:T96">
+    <cfRule type="colorScale" priority="3053">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3052">
       <colorScale>
         <cfvo type="min"/>
@@ -39483,18 +39515,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3053">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA97:AD97 BC97 G97:P97 V97:X97 R97:T97">
+    <cfRule type="colorScale" priority="3055">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3054">
       <colorScale>
         <cfvo type="min"/>
@@ -39505,18 +39537,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3055">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA98:AD98 BC98 G98:P98 V98:X98 R98:T98">
+    <cfRule type="colorScale" priority="3057">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3056">
       <colorScale>
         <cfvo type="min"/>
@@ -39527,29 +39559,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3057">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA99:AD99 BC99 G99:P99 V99:X99 R99:T99">
+    <cfRule type="colorScale" priority="3059">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3058">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3059">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39869,6 +39891,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA114:AD114 BC114 G114:P114 V114:X114 R114:T114">
+    <cfRule type="colorScale" priority="3089">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3088">
       <colorScale>
         <cfvo type="min"/>
@@ -39879,29 +39911,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3089">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AD115 BC115 G115:P115 V115:X115 R115:T115">
+    <cfRule type="colorScale" priority="3091">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3090">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3091">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40111,17 +40133,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AD125 BC125 G125:P125 V125:X125 R125:T125">
+    <cfRule type="colorScale" priority="3111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40177,6 +40199,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA128:AD128 BC128 G128:P128 V128:X128 R128:T128">
+    <cfRule type="colorScale" priority="3117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3116">
       <colorScale>
         <cfvo type="min"/>
@@ -40187,18 +40219,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA129:AD129 BC129 G129:P129 V129:X129 R129:T129">
+    <cfRule type="colorScale" priority="3119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3118">
       <colorScale>
         <cfvo type="min"/>
@@ -40209,18 +40241,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA130:AD130 BC130 G130:P130 V130:X130 R130:T130">
+    <cfRule type="colorScale" priority="3121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3120">
       <colorScale>
         <cfvo type="min"/>
@@ -40231,18 +40263,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA131:AD131 BC131 G131:P131 V131:X131 R131:T131">
+    <cfRule type="colorScale" priority="3123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3122">
       <colorScale>
         <cfvo type="min"/>
@@ -40253,18 +40285,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA132:AD132 BC132 G132:P132 V132:X132 R132:T132">
+    <cfRule type="colorScale" priority="3125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3124">
       <colorScale>
         <cfvo type="min"/>
@@ -40275,18 +40307,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA133:AD133 BC133 G133:P133 V133:X133">
+    <cfRule type="colorScale" priority="3127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3126">
       <colorScale>
         <cfvo type="min"/>
@@ -40297,29 +40329,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA134:AD134 BC134 G134:P134 V134:X134 R134:T134">
+    <cfRule type="colorScale" priority="3129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40551,6 +40573,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA145:AD145 BC145 G145:P145 V145:X145 R145:T145">
+    <cfRule type="colorScale" priority="3151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3150">
       <colorScale>
         <cfvo type="min"/>
@@ -40561,29 +40593,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA146:AD146 BC146 G146:P146 V146:X146 R146:T146">
+    <cfRule type="colorScale" priority="3153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40705,17 +40727,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA152:AD152 BC152 G152:P152 V152:X152 R152:T152">
+    <cfRule type="colorScale" priority="3165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40793,6 +40815,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA156:AD156 BC156 G156:P156 V156:X156 R156:T156">
+    <cfRule type="colorScale" priority="3173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3172">
       <colorScale>
         <cfvo type="min"/>
@@ -40803,18 +40835,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA157:AD157 BC157 G157:P157 V157:X157 R157:T157">
+    <cfRule type="colorScale" priority="3175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3174">
       <colorScale>
         <cfvo type="min"/>
@@ -40825,18 +40857,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA158:AD158 BC158 G158:P158 V158:X158 R158:T158">
+    <cfRule type="colorScale" priority="3177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3176">
       <colorScale>
         <cfvo type="min"/>
@@ -40847,18 +40879,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA159:AD159 BC159 G159:P159 V159:X159 R159:T159">
+    <cfRule type="colorScale" priority="3179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3178">
       <colorScale>
         <cfvo type="min"/>
@@ -40869,18 +40901,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA160:AD160 BC160 G160:P160 V160:X160 R160:T160">
+    <cfRule type="colorScale" priority="3181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3180">
       <colorScale>
         <cfvo type="min"/>
@@ -40891,18 +40923,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA161:AD161 BC161 G161:P161 V161:X161 R161:T161">
+    <cfRule type="colorScale" priority="3183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3182">
       <colorScale>
         <cfvo type="min"/>
@@ -40913,29 +40945,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA162:AD162 BC162 G162:P162 V162:X162 R162:T162">
+    <cfRule type="colorScale" priority="3185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41079,6 +41101,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA169:AD169 BC169 G169:P169 V169:X169 R169:T169">
+    <cfRule type="colorScale" priority="3199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3198">
       <colorScale>
         <cfvo type="min"/>
@@ -41089,18 +41121,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA170:AD170 BC170 G170:P170 V170:X170 R170:T170">
+    <cfRule type="colorScale" priority="3201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3200">
       <colorScale>
         <cfvo type="min"/>
@@ -41111,29 +41143,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA171:AD171 BC171 G171:P171 V171:X171 R171:T171">
+    <cfRule type="colorScale" priority="3203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41167,6 +41189,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA173:AD173 BC173 G173:P173 V173:X173 R173:T173">
+    <cfRule type="colorScale" priority="3207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3206">
       <colorScale>
         <cfvo type="min"/>
@@ -41177,29 +41209,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA174:AD174 BC174 G174:P174 V174:X174 R174:T174">
+    <cfRule type="colorScale" priority="3209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41233,6 +41255,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA176:AD176 BC176 G176:P176 V176:X176 R176:T176">
+    <cfRule type="colorScale" priority="3213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3212">
       <colorScale>
         <cfvo type="min"/>
@@ -41243,18 +41275,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA177:AD177 BC177 G177:P177 V177:X177 R177:T177">
+    <cfRule type="colorScale" priority="3215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3214">
       <colorScale>
         <cfvo type="min"/>
@@ -41265,18 +41297,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA178:AD178 BC178 G178:P178 V178:X178 R178:T178">
+    <cfRule type="colorScale" priority="3217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3216">
       <colorScale>
         <cfvo type="min"/>
@@ -41287,29 +41319,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA179:AD179 BC179 G179:P179 V179:X179 R179:T179">
+    <cfRule type="colorScale" priority="3219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41365,6 +41387,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA182:AD182 BC182 G182:P182 V182:X182 R182:T182">
+    <cfRule type="colorScale" priority="3225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3224">
       <colorScale>
         <cfvo type="min"/>
@@ -41375,18 +41407,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA183:AD183 BC183 G183:P183 V183:X183 R183:T183">
+    <cfRule type="colorScale" priority="3227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3226">
       <colorScale>
         <cfvo type="min"/>
@@ -41397,18 +41429,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA184:AD184 BC184 G184:P184 V184:X184 R184:T184">
+    <cfRule type="colorScale" priority="3229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3228">
       <colorScale>
         <cfvo type="min"/>
@@ -41419,18 +41451,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA185:AD185 BC185 G185:P185 V185:X185 R185:T185">
+    <cfRule type="colorScale" priority="3231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3230">
       <colorScale>
         <cfvo type="min"/>
@@ -41441,18 +41473,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA186:AD186 BC186 G186:P186 V186:X186 R186:T186">
+    <cfRule type="colorScale" priority="3233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3232">
       <colorScale>
         <cfvo type="min"/>
@@ -41463,18 +41495,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA187:AD187 BC187 G187:P187 V187:X187 R187:T187">
+    <cfRule type="colorScale" priority="3235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3234">
       <colorScale>
         <cfvo type="min"/>
@@ -41485,18 +41517,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA188:AD188 BC188 G188:P188 V188:X188 R188:T188">
+    <cfRule type="colorScale" priority="3237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3236">
       <colorScale>
         <cfvo type="min"/>
@@ -41507,18 +41539,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3237">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA189:AD189 BC189 G189:P189 V189:X189 R189:T189">
+    <cfRule type="colorScale" priority="3239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3238">
       <colorScale>
         <cfvo type="min"/>
@@ -41529,18 +41561,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3239">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA190:AD190 BC190 G190:P190 V190:X190 R190:T190">
+    <cfRule type="colorScale" priority="3241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3240">
       <colorScale>
         <cfvo type="min"/>
@@ -41551,18 +41583,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3241">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA191:AD191 BC191 G191:P191 V191:X191 R191:T191">
+    <cfRule type="colorScale" priority="3243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3242">
       <colorScale>
         <cfvo type="min"/>
@@ -41573,29 +41605,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3243">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA192:AD192 BC192 G192:P192 V192:X192 R192:T192">
+    <cfRule type="colorScale" priority="3245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3244">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41717,17 +41739,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA198:AD198 BC198 G198:P198 V198:X198 R198:T198">
+    <cfRule type="colorScale" priority="3257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3256">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3257">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41827,6 +41849,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA203:AD203 BC203 G203:P203 V203:X203 R203:T203">
+    <cfRule type="colorScale" priority="3267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3266">
       <colorScale>
         <cfvo type="min"/>
@@ -41837,29 +41869,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA204:AD204 BC204 G204:P204 V204:X204 R204:T204">
+    <cfRule type="colorScale" priority="3269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3268">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3269">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41937,6 +41959,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA208:AD208 BC208 G208:P208 V208 R208:T208">
+    <cfRule type="colorScale" priority="3279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3278">
       <colorScale>
         <cfvo type="min"/>
@@ -41947,29 +41979,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA209:AD209 BC209 G209:P209 V209 R209:T209">
+    <cfRule type="colorScale" priority="3281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3280">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42047,6 +42069,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA213:AD213 BC213 G213:P213 V213:X213">
+    <cfRule type="colorScale" priority="3291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3290">
       <colorScale>
         <cfvo type="min"/>
@@ -42057,18 +42089,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA214:AD216 BC214:BC216 G214:P216 V214:X216">
+    <cfRule type="colorScale" priority="3293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3292">
       <colorScale>
         <cfvo type="min"/>
@@ -42079,18 +42111,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3293">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA217:AD217 BC217 G217:P217 V217:X217">
+    <cfRule type="colorScale" priority="3295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3294">
       <colorScale>
         <cfvo type="min"/>
@@ -42101,18 +42133,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA218:AD220 BC218:BC220 G218:P219 V218:X220 H220:P220">
+    <cfRule type="colorScale" priority="3297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3296">
       <colorScale>
         <cfvo type="min"/>
@@ -42123,18 +42155,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA221:AD221">
+    <cfRule type="colorScale" priority="3305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3304">
       <colorScale>
         <cfvo type="min"/>
@@ -42145,18 +42177,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE23">
+    <cfRule type="colorScale" priority="1127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1126">
       <colorScale>
         <cfvo type="min"/>
@@ -42167,18 +42199,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE222:AE227">
+    <cfRule type="colorScale" priority="1527">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1526">
       <colorScale>
         <cfvo type="min"/>
@@ -42189,29 +42221,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1527">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE228:AE229">
+    <cfRule type="colorScale" priority="1529">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1528">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1529">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42311,6 +42333,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE6:AK6">
+    <cfRule type="colorScale" priority="1095">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1094">
       <colorScale>
         <cfvo type="min"/>
@@ -42321,29 +42353,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1095">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AK7">
+    <cfRule type="colorScale" priority="1097">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1096">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1097">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42377,6 +42399,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AK9">
+    <cfRule type="colorScale" priority="1101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1100">
       <colorScale>
         <cfvo type="min"/>
@@ -42387,29 +42419,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AK10">
+    <cfRule type="colorScale" priority="1103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42487,17 +42509,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14:AK14">
+    <cfRule type="colorScale" priority="1111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42531,6 +42553,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE16:AK16">
+    <cfRule type="colorScale" priority="1115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1114">
       <colorScale>
         <cfvo type="min"/>
@@ -42541,18 +42573,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AK17">
+    <cfRule type="colorScale" priority="1117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1116">
       <colorScale>
         <cfvo type="min"/>
@@ -42563,29 +42595,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AK18">
+    <cfRule type="colorScale" priority="1119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42883,17 +42905,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34:AK34">
+    <cfRule type="colorScale" priority="1149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43015,17 +43037,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE40:AK40">
+    <cfRule type="colorScale" priority="1161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43059,17 +43081,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AK42">
+    <cfRule type="colorScale" priority="1165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43521,17 +43543,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE63:AK63">
+    <cfRule type="colorScale" priority="1207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43675,17 +43697,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE70:AK70">
+    <cfRule type="colorScale" priority="1221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43851,6 +43873,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE78:AK78">
+    <cfRule type="colorScale" priority="1237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1236">
       <colorScale>
         <cfvo type="min"/>
@@ -43861,18 +43893,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1237">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE79:AK79">
+    <cfRule type="colorScale" priority="1239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1238">
       <colorScale>
         <cfvo type="min"/>
@@ -43883,18 +43915,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1239">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE80:AK80">
+    <cfRule type="colorScale" priority="1241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1240">
       <colorScale>
         <cfvo type="min"/>
@@ -43905,29 +43937,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1241">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE81:AK81">
+    <cfRule type="colorScale" priority="1243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1242">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44093,17 +44115,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE89:AK89">
+    <cfRule type="colorScale" priority="1259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1258">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44225,17 +44247,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE95:AK95">
+    <cfRule type="colorScale" priority="1271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1270">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44291,6 +44313,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE98:AK98">
+    <cfRule type="colorScale" priority="1277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1276">
       <colorScale>
         <cfvo type="min"/>
@@ -44301,18 +44333,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1277">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE99:AK99">
+    <cfRule type="colorScale" priority="1279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1278">
       <colorScale>
         <cfvo type="min"/>
@@ -44323,29 +44355,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE100:AK100">
+    <cfRule type="colorScale" priority="1281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1280">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44423,17 +44445,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE104:AK104">
+    <cfRule type="colorScale" priority="1289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44511,6 +44533,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE108:AK108">
+    <cfRule type="colorScale" priority="1297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1296">
       <colorScale>
         <cfvo type="min"/>
@@ -44521,29 +44553,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE109:AK109">
+    <cfRule type="colorScale" priority="1299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44599,17 +44621,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE112:AK112">
+    <cfRule type="colorScale" priority="1305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1304">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44643,17 +44665,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE114:AK114">
+    <cfRule type="colorScale" priority="1309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1308">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1309">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44687,6 +44709,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE116:AK116">
+    <cfRule type="colorScale" priority="1313">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1312">
       <colorScale>
         <cfvo type="min"/>
@@ -44697,29 +44729,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1313">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE117:AK117">
+    <cfRule type="colorScale" priority="1315">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1314">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1315">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44753,17 +44775,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE119:AK119">
+    <cfRule type="colorScale" priority="1319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1318">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1319">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44841,6 +44863,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE123:AK123">
+    <cfRule type="colorScale" priority="1327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1326">
       <colorScale>
         <cfvo type="min"/>
@@ -44851,29 +44883,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE124:AK124">
+    <cfRule type="colorScale" priority="1329">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1328">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1329">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45017,17 +45039,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE131:AK131">
+    <cfRule type="colorScale" priority="1343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1343">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45061,17 +45083,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE133:AK133">
+    <cfRule type="colorScale" priority="1347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1346">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1347">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45215,17 +45237,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE140:AK140">
+    <cfRule type="colorScale" priority="1361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1361">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45325,6 +45347,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE145:AK145">
+    <cfRule type="colorScale" priority="1371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1370">
       <colorScale>
         <cfvo type="min"/>
@@ -45335,29 +45367,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE146:AK146">
+    <cfRule type="colorScale" priority="1373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1372">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1373">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45479,17 +45501,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE152:AK152">
+    <cfRule type="colorScale" priority="1385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1385">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45545,6 +45567,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE155:AK155">
+    <cfRule type="colorScale" priority="1391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1390">
       <colorScale>
         <cfvo type="min"/>
@@ -45555,18 +45587,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE156:AK156">
+    <cfRule type="colorScale" priority="1393">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1392">
       <colorScale>
         <cfvo type="min"/>
@@ -45577,18 +45609,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1393">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE157:AK157">
+    <cfRule type="colorScale" priority="1395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1394">
       <colorScale>
         <cfvo type="min"/>
@@ -45599,18 +45631,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1395">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE158:AK158">
+    <cfRule type="colorScale" priority="1397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1396">
       <colorScale>
         <cfvo type="min"/>
@@ -45621,18 +45653,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1397">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE159:AK159">
+    <cfRule type="colorScale" priority="1399">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1398">
       <colorScale>
         <cfvo type="min"/>
@@ -45643,29 +45675,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1399">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE160:AK160">
+    <cfRule type="colorScale" priority="1401">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1401">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45699,6 +45721,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE162:AK162">
+    <cfRule type="colorScale" priority="1405">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1404">
       <colorScale>
         <cfvo type="min"/>
@@ -45709,18 +45741,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1405">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE163:AK163">
+    <cfRule type="colorScale" priority="1407">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1406">
       <colorScale>
         <cfvo type="min"/>
@@ -45731,29 +45763,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1407">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE164:AK164">
+    <cfRule type="colorScale" priority="1409">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1408">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1409">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45919,6 +45941,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE172:AK172">
+    <cfRule type="colorScale" priority="1425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1424">
       <colorScale>
         <cfvo type="min"/>
@@ -45929,18 +45961,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1425">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE173:AK173">
+    <cfRule type="colorScale" priority="1427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1426">
       <colorScale>
         <cfvo type="min"/>
@@ -45951,29 +45983,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE174:AK174">
+    <cfRule type="colorScale" priority="1429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1428">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1429">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46007,6 +46029,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE176:AK176">
+    <cfRule type="colorScale" priority="1433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1432">
       <colorScale>
         <cfvo type="min"/>
@@ -46017,18 +46049,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE177:AK177">
+    <cfRule type="colorScale" priority="1435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1434">
       <colorScale>
         <cfvo type="min"/>
@@ -46039,18 +46071,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1435">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE178:AK178">
+    <cfRule type="colorScale" priority="1437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1436">
       <colorScale>
         <cfvo type="min"/>
@@ -46061,18 +46093,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1437">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE179:AK179">
+    <cfRule type="colorScale" priority="1439">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1438">
       <colorScale>
         <cfvo type="min"/>
@@ -46083,18 +46115,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1439">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE180:AK180">
+    <cfRule type="colorScale" priority="1441">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1440">
       <colorScale>
         <cfvo type="min"/>
@@ -46105,18 +46137,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1441">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE181:AK181">
+    <cfRule type="colorScale" priority="1443">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1442">
       <colorScale>
         <cfvo type="min"/>
@@ -46127,18 +46159,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1443">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE182:AK182">
+    <cfRule type="colorScale" priority="1445">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1444">
       <colorScale>
         <cfvo type="min"/>
@@ -46149,29 +46181,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1445">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE183:AK183">
+    <cfRule type="colorScale" priority="1447">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1446">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1447">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46227,17 +46249,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE186:AK186">
+    <cfRule type="colorScale" priority="1453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1452">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1453">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46293,17 +46315,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE189:AK189">
+    <cfRule type="colorScale" priority="1459">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1458">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1459">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46337,17 +46359,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE191:AK191">
+    <cfRule type="colorScale" priority="1463">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1462">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1463">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46425,17 +46447,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE195:AK195">
+    <cfRule type="colorScale" priority="1471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1470">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1471">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46513,17 +46535,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE199:AK199">
+    <cfRule type="colorScale" priority="1479">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1478">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1479">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46557,17 +46579,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE201:AK201">
+    <cfRule type="colorScale" priority="1483">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1482">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1483">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46777,17 +46799,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE211:AK211">
+    <cfRule type="colorScale" priority="1507">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1506">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1507">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46821,17 +46843,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE213:AK213">
+    <cfRule type="colorScale" priority="1511">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1510">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1511">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46865,17 +46887,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE217:AK217">
+    <cfRule type="colorScale" priority="1515">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1514">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1515">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46931,6 +46953,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22:AF23">
+    <cfRule type="colorScale" priority="1081">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1080">
       <colorScale>
         <cfvo type="min"/>
@@ -46941,18 +46973,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1081">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF222:AF227">
+    <cfRule type="colorScale" priority="1083">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1082">
       <colorScale>
         <cfvo type="min"/>
@@ -46963,29 +46995,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1083">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF228:AF229">
+    <cfRule type="colorScale" priority="1085">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1084">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1085">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47041,17 +47063,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG228:AG229">
+    <cfRule type="colorScale" priority="1079">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1078">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1079">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47129,17 +47151,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AI23">
+    <cfRule type="colorScale" priority="1063">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1062">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1063">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47173,17 +47195,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI228:AI229">
+    <cfRule type="colorScale" priority="1067">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1066">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1067">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47217,6 +47239,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ222:AJ227">
+    <cfRule type="colorScale" priority="1059">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1058">
       <colorScale>
         <cfvo type="min"/>
@@ -47227,29 +47259,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1059">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ228:AJ229">
+    <cfRule type="colorScale" priority="1061">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1060">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1061">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47305,17 +47327,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK228:AK229">
+    <cfRule type="colorScale" priority="1055">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1054">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1055">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47349,17 +47371,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM221">
+    <cfRule type="colorScale" priority="569">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="568">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="569">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49703,6 +49725,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM108:AS108 AU108:AX108">
+    <cfRule type="colorScale" priority="4165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4164">
       <colorScale>
         <cfvo type="min"/>
@@ -49713,18 +49745,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM109:AS109 AU109:AX109">
+    <cfRule type="colorScale" priority="4169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4168">
       <colorScale>
         <cfvo type="min"/>
@@ -49735,18 +49767,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM110:AS110 AU110:AX110">
+    <cfRule type="colorScale" priority="4173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4172">
       <colorScale>
         <cfvo type="min"/>
@@ -49757,18 +49789,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM111:AS111 AU111:AX111">
+    <cfRule type="colorScale" priority="4177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4176">
       <colorScale>
         <cfvo type="min"/>
@@ -49779,18 +49811,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM112:AS112 AU112:AX112">
+    <cfRule type="colorScale" priority="4181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4180">
       <colorScale>
         <cfvo type="min"/>
@@ -49801,18 +49833,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM113:AS113 AU113:AX113">
+    <cfRule type="colorScale" priority="4185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4184">
       <colorScale>
         <cfvo type="min"/>
@@ -49823,18 +49855,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM114:AS114 AU114:AX114">
+    <cfRule type="colorScale" priority="4189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4188">
       <colorScale>
         <cfvo type="min"/>
@@ -49845,29 +49877,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM115:AS115 AU115:AX115">
+    <cfRule type="colorScale" priority="4193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49901,17 +49923,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM117:AS117 AU117:AX117">
+    <cfRule type="colorScale" priority="4201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49945,17 +49967,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM119:AS119 AU119:AX119">
+    <cfRule type="colorScale" priority="4209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49989,17 +50011,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM121:AS121 AU121:AX121">
+    <cfRule type="colorScale" priority="4217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50077,17 +50099,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM125:AS125 AU125:AX125">
+    <cfRule type="colorScale" priority="4233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50165,17 +50187,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM129:AS129 AU129:AX129">
+    <cfRule type="colorScale" priority="4249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4248">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50297,6 +50319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM135:AS135 AU135:AX135">
+    <cfRule type="colorScale" priority="4273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4272">
       <colorScale>
         <cfvo type="min"/>
@@ -50307,18 +50339,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4273">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM136:AS136 AU136:AX136">
+    <cfRule type="colorScale" priority="4277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4276">
       <colorScale>
         <cfvo type="min"/>
@@ -50329,18 +50361,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4277">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM137:AS137 AU137:AX137">
+    <cfRule type="colorScale" priority="4281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4280">
       <colorScale>
         <cfvo type="min"/>
@@ -50351,18 +50383,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4281">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM138:AS138 AU138:AX138">
+    <cfRule type="colorScale" priority="4285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4284">
       <colorScale>
         <cfvo type="min"/>
@@ -50373,29 +50405,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM139:AS139 AU139:AX139">
+    <cfRule type="colorScale" priority="4289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50451,17 +50473,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM142:AS142 AU142:AX142">
+    <cfRule type="colorScale" priority="4301">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4300">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4301">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50495,17 +50517,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM144:AS144 AU144:AX144">
+    <cfRule type="colorScale" priority="4309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4308">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4309">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50539,6 +50561,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM146:AS146 AU146:AX146">
+    <cfRule type="colorScale" priority="4317">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4316">
       <colorScale>
         <cfvo type="min"/>
@@ -50549,18 +50581,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4317">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM147:AS147 AU147:AX147">
+    <cfRule type="colorScale" priority="4321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4320">
       <colorScale>
         <cfvo type="min"/>
@@ -50571,29 +50603,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM148:AS148 AU148:AX148">
+    <cfRule type="colorScale" priority="4325">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4325">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50737,17 +50759,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM155:AS155 AU155:AX155">
+    <cfRule type="colorScale" priority="4353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4353">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50869,6 +50891,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM161:AS161 AU161:AX161">
+    <cfRule type="colorScale" priority="4377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4376">
       <colorScale>
         <cfvo type="min"/>
@@ -50879,18 +50911,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4377">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM162:AS162 AU162:AX162">
+    <cfRule type="colorScale" priority="4381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4380">
       <colorScale>
         <cfvo type="min"/>
@@ -50901,29 +50933,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM163:AS163 AU163:AX163">
+    <cfRule type="colorScale" priority="4385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4385">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50979,6 +51001,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM166:AS166 AU166:AX166">
+    <cfRule type="colorScale" priority="4397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4396">
       <colorScale>
         <cfvo type="min"/>
@@ -50989,29 +51021,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4397">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM167:AS167 AU167:AX167">
+    <cfRule type="colorScale" priority="4401">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4401">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51067,17 +51089,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM170:AS170 AU170:AX170">
+    <cfRule type="colorScale" priority="4413">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4412">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4413">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51177,6 +51199,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM175:AS175 AU175:AX175">
+    <cfRule type="colorScale" priority="4433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4432">
       <colorScale>
         <cfvo type="min"/>
@@ -51187,18 +51219,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM176:AS176 AU176:AX176">
+    <cfRule type="colorScale" priority="4437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4436">
       <colorScale>
         <cfvo type="min"/>
@@ -51209,29 +51241,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4437">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM177:AS177 AU177:AX177">
+    <cfRule type="colorScale" priority="4441">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4440">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4441">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51441,17 +51463,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM187:AS187 AU187:AX187">
+    <cfRule type="colorScale" priority="4481">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4480">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4481">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51551,17 +51573,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM192:AS192 AU192:AX192">
+    <cfRule type="colorScale" priority="4501">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4500">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4501">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51595,17 +51617,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM194:AS194 AU194:AX194">
+    <cfRule type="colorScale" priority="4509">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4508">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4509">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51859,6 +51881,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM206:AS206 AU206:AX206">
+    <cfRule type="colorScale" priority="4557">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4556">
       <colorScale>
         <cfvo type="min"/>
@@ -51869,29 +51901,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4557">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM207:AS207">
+    <cfRule type="colorScale" priority="4565">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4564">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4565">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51991,6 +52013,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM212:AS212 AU212:AX212">
+    <cfRule type="colorScale" priority="4589">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4588">
       <colorScale>
         <cfvo type="min"/>
@@ -52001,29 +52033,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4589">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM213:AS213 AU213:AX213">
+    <cfRule type="colorScale" priority="4593">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4592">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4593">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52057,6 +52079,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM217:AS217 AU217:AX217">
+    <cfRule type="colorScale" priority="4601">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4600">
       <colorScale>
         <cfvo type="min"/>
@@ -52067,29 +52099,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4601">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM218:AS220 AU218:AX220">
+    <cfRule type="colorScale" priority="4605">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4604">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4605">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52123,6 +52145,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22:AN23">
+    <cfRule type="colorScale" priority="601">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="600">
       <colorScale>
         <cfvo type="min"/>
@@ -52133,29 +52165,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="601">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN221">
+    <cfRule type="colorScale" priority="567">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="566">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="567">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52189,17 +52211,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN228:AN229">
+    <cfRule type="colorScale" priority="605">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="604">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="605">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52321,17 +52343,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP221">
+    <cfRule type="colorScale" priority="563">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="562">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="563">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52365,6 +52387,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP228:AP229">
+    <cfRule type="colorScale" priority="593">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="592">
       <colorScale>
         <cfvo type="min"/>
@@ -52375,18 +52407,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="593">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23">
+    <cfRule type="colorScale" priority="583">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="582">
       <colorScale>
         <cfvo type="min"/>
@@ -52397,18 +52429,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="583">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ221">
+    <cfRule type="colorScale" priority="561">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="560">
       <colorScale>
         <cfvo type="min"/>
@@ -52419,18 +52451,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="561">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ222:AQ227">
+    <cfRule type="colorScale" priority="585">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="584">
       <colorScale>
         <cfvo type="min"/>
@@ -52441,29 +52473,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="585">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ228:AQ229">
+    <cfRule type="colorScale" priority="587">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="586">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="587">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52497,6 +52519,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR221">
+    <cfRule type="colorScale" priority="559">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="558">
       <colorScale>
         <cfvo type="min"/>
@@ -52507,18 +52539,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="559">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR222:AR227">
+    <cfRule type="colorScale" priority="579">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="578">
       <colorScale>
         <cfvo type="min"/>
@@ -52529,18 +52561,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="579">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR228:AR229">
+    <cfRule type="colorScale" priority="581">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="580">
       <colorScale>
         <cfvo type="min"/>
@@ -52551,18 +52583,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="581">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22:AS23">
+    <cfRule type="colorScale" priority="571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="570">
       <colorScale>
         <cfvo type="min"/>
@@ -52573,18 +52605,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="571">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS222:AS227">
+    <cfRule type="colorScale" priority="573">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="572">
       <colorScale>
         <cfvo type="min"/>
@@ -52595,29 +52627,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="573">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS228:AS229">
+    <cfRule type="colorScale" priority="575">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="574">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="575">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52651,6 +52673,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU207:AX207">
+    <cfRule type="colorScale" priority="4561">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4560">
       <colorScale>
         <cfvo type="min"/>
@@ -52661,18 +52693,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4561">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU211:AX211">
+    <cfRule type="colorScale" priority="4581">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4580">
       <colorScale>
         <cfvo type="min"/>
@@ -52683,18 +52715,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4581">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU221:AX221">
+    <cfRule type="colorScale" priority="4613">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4612">
       <colorScale>
         <cfvo type="min"/>
@@ -52705,18 +52737,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4613">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU222:AX227">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -52727,29 +52759,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU228:AX229">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52805,6 +52827,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -52815,18 +52847,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -52837,29 +52869,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ6">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52959,17 +52981,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ11">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53025,6 +53047,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ14">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -53035,18 +53067,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ15">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -53057,29 +53089,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53135,6 +53157,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -53145,18 +53177,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -53167,18 +53199,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -53189,29 +53221,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:AZ23">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53245,6 +53267,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ25">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -53255,18 +53287,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ26">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -53277,18 +53309,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ27">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -53299,29 +53331,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ28">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53729,17 +53751,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ47">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53905,6 +53927,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ55">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -53915,18 +53947,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ56">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -53937,29 +53969,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ57">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53993,6 +54015,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ59">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -54003,18 +54035,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ60">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -54025,29 +54057,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ61">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54125,6 +54147,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ65">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -54135,29 +54167,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ66">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54257,17 +54279,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ71">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54389,6 +54411,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ77">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -54399,29 +54431,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ78">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54499,17 +54521,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ82">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="240">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54543,6 +54565,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ84">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -54553,29 +54585,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ85">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="246">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54609,6 +54631,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ87">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -54619,18 +54651,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ88">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -54641,18 +54673,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="253">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ89">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -54663,18 +54695,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ90">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -54685,18 +54717,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ91">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
@@ -54707,18 +54739,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ92">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
@@ -54729,29 +54761,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="261">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ93">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="262">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54785,6 +54807,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ95">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -54795,18 +54827,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ96">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -54817,18 +54849,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ97">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -54839,18 +54871,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ98">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
@@ -54861,18 +54893,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ99">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -54883,18 +54915,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ100">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -54905,18 +54937,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="277">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ101">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
@@ -54927,18 +54959,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ102">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
@@ -54949,18 +54981,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="281">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ103">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -54971,18 +55003,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="283">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ104">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
@@ -54993,29 +55025,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ105">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="286">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55049,17 +55071,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ107">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55225,6 +55247,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ115">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
@@ -55235,18 +55267,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ116">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="min"/>
@@ -55257,29 +55289,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ117">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55379,17 +55401,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ122">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="320">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55445,17 +55467,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ125">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="326">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55489,6 +55511,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ127">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -55499,18 +55531,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ128">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="min"/>
@@ -55521,18 +55553,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ129">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="min"/>
@@ -55543,29 +55575,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="335">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ130">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="337">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55665,6 +55687,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ135">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
@@ -55675,29 +55707,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="347">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ136">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="348">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55775,6 +55797,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ140">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="min"/>
@@ -55785,18 +55817,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ141">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="358">
       <colorScale>
         <cfvo type="min"/>
@@ -55807,18 +55839,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ142">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="360">
       <colorScale>
         <cfvo type="min"/>
@@ -55829,29 +55861,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="361">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ143">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="362">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="363">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55995,6 +56017,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ150">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="376">
       <colorScale>
         <cfvo type="min"/>
@@ -56005,29 +56037,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="377">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ151">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="378">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="379">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56193,17 +56215,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ159">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="395">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56567,6 +56589,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ176">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="428">
       <colorScale>
         <cfvo type="min"/>
@@ -56577,29 +56609,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="429">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ177">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="430">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="431">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56721,17 +56743,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ183">
+    <cfRule type="colorScale" priority="443">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="442">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="443">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56765,17 +56787,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ185">
+    <cfRule type="colorScale" priority="447">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="446">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="447">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56919,17 +56941,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ192">
+    <cfRule type="colorScale" priority="461">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="460">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="461">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56985,17 +57007,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ195">
+    <cfRule type="colorScale" priority="467">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="466">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="467">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57029,17 +57051,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ197">
+    <cfRule type="colorScale" priority="471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="470">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="471">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57073,6 +57095,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ199">
+    <cfRule type="colorScale" priority="475">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="474">
       <colorScale>
         <cfvo type="min"/>
@@ -57083,18 +57115,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="475">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ200">
+    <cfRule type="colorScale" priority="477">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="476">
       <colorScale>
         <cfvo type="min"/>
@@ -57105,29 +57137,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="477">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ201">
+    <cfRule type="colorScale" priority="479">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="478">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="479">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57227,17 +57249,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ206">
+    <cfRule type="colorScale" priority="489">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="488">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="489">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57359,17 +57381,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ212">
+    <cfRule type="colorScale" priority="505">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="504">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="505">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57599,39 +57621,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC228:BC229 AA228:AD229 G228:P229 V228:X229 R228:T229">
+    <cfRule type="colorScale" priority="3309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3308">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R227:T227">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/simulations/scene/inputs/Scenarios_25-06-05.xlsx
+++ b/simulations/scene/inputs/Scenarios_25-06-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp00839\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp42424\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55B8CA-F23A-4335-9763-706995C8E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97525875-1336-4A82-B4BC-3D31B3D19FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2877,10 +2877,10 @@
   <dimension ref="A1:BZ229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="N192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S231" sqref="S231"/>
+      <selection pane="bottomRight" activeCell="R206" sqref="R206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33163,8 +33163,8 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="R205" s="44">
-        <f>0.00005 / 100 *10</f>
-        <v>4.9999999999999996E-6</v>
+        <f>0.00005 / 100 / 6</f>
+        <v>8.3333333333333325E-8</v>
       </c>
       <c r="S205" s="44">
         <f>0.00005 / 100</f>
